--- a/testdata/samples/channels/xls/channels_registry.redhat.io_redhat_certified_operator_index_v4.8_2021-05-14.xlsx
+++ b/testdata/samples/channels/xls/channels_registry.redhat.io_redhat_certified_operator_index_v4.8_2021-05-14.xlsx
@@ -37,6 +37,21 @@
     <t>sha256:414ec051c4eec31a9f8e0e51eb4e0aa92653ca6b1d1c3da6cef92cb4bd21d0ed</t>
   </si>
   <si>
+    <t>Channel Name</t>
+  </si>
+  <si>
+    <t>Is Following Name Convention</t>
+  </si>
+  <si>
+    <t>Has Invalid Versioning</t>
+  </si>
+  <si>
+    <t>List of Missing Replaces</t>
+  </si>
+  <si>
+    <t>Issues (To process this report)</t>
+  </si>
+  <si>
     <t>Package Name</t>
   </si>
   <si>
@@ -46,27 +61,12 @@
     <t>Is using skipRange</t>
   </si>
   <si>
-    <t>Has Invalid Versioning</t>
+    <t>Has Invalid SkipRange</t>
   </si>
   <si>
     <t>Found All Replaces</t>
   </si>
   <si>
-    <t>List of Missing Replaces</t>
-  </si>
-  <si>
-    <t>Channel Name</t>
-  </si>
-  <si>
-    <t>Is Following Name Convention</t>
-  </si>
-  <si>
-    <t>Has Invalid SkipRange</t>
-  </si>
-  <si>
-    <t>Issues (To process this report)</t>
-  </si>
-  <si>
     <t>alcide-kaudit-operator</t>
   </si>
   <si>
@@ -88,16 +88,16 @@
     <t>beta</t>
   </si>
   <si>
+    <t>anchore-engine</t>
+  </si>
+  <si>
+    <t>anzo-operator</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
     <t>appdynamics-operator</t>
-  </si>
-  <si>
-    <t>anchore-engine</t>
-  </si>
-  <si>
-    <t>anzo-operator</t>
-  </si>
-  <si>
-    <t>stable</t>
   </si>
 </sst>
 </file>
@@ -472,34 +472,34 @@
     </row>
     <row r="5" ht="15" customHeight="true">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
         <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="true">
@@ -603,7 +603,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -611,8 +611,8 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="10" ht="15" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -643,8 +643,8 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
